--- a/Zapis_Wynikow_Wzorcowania/Przyklad.xlsx
+++ b/Zapis_Wynikow_Wzorcowania/Przyklad.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -98,55 +98,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,8 +112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -571,10 +525,10 @@
           <t>mV</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
@@ -620,10 +574,10 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="6" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="2" t="n">
@@ -845,10 +799,10 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
@@ -990,10 +944,10 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
@@ -1115,10 +1069,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="6" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="2" t="n">
@@ -1225,10 +1179,10 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
@@ -1312,10 +1266,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="6" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="2" t="n">
@@ -1373,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F20"/>
+  <dimension ref="B5:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1421,10 +1375,10 @@
           <t>Ω</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
@@ -1452,10 +1406,10 @@
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="2" t="n">
@@ -1523,10 +1477,10 @@
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="6" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n">
@@ -1568,6 +1522,9 @@
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
     </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B6:F6"/>
